--- a/input/data/Bank_Vendor_Data.xlsx
+++ b/input/data/Bank_Vendor_Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\New folder\MIP\Mendix\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141912B-3174-4867-82A4-6A3538CED367}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>S.NO</t>
   </si>
@@ -29,18 +30,12 @@
     <t>Test_Case</t>
   </si>
   <si>
-    <t>Execute</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>BE</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -188,12 +183,6 @@
     <t>Production | Raw material, ingredient or processing aid</t>
   </si>
   <si>
-    <t>OpCo</t>
-  </si>
-  <si>
-    <t>Extend Vendor Global and local with Rejections for NAV (For Algeria to panama)</t>
-  </si>
-  <si>
     <t>Bank Country</t>
   </si>
   <si>
@@ -218,14 +207,26 @@
     <t>002</t>
   </si>
   <si>
-    <t>PA01</t>
+    <t>20.Create_Vendor_with_Questionnaire_with_Global_and_Local_and_Bank_JDE.xml</t>
+  </si>
+  <si>
+    <t>21.Create_Vendor_with_Questionnaire_with_Global_and_Local_and_Bank_with_Discard_JDE.xml</t>
+  </si>
+  <si>
+    <t>25Create_Vendor_with_Questionnaire_with_Global_and_Local_and_Bank_NAV.xml</t>
+  </si>
+  <si>
+    <t>97.Create_Vendor_with_Questionnaire_banklocalonly_Global2.xml</t>
+  </si>
+  <si>
+    <t>4.Change_vendor_global_&amp;_local_&amp;_Bank.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -239,6 +240,10 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Mic Shell Dlg"/>
     </font>
   </fonts>
   <fills count="3">
@@ -306,13 +311,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -662,105 +666,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IY2"/>
+  <dimension ref="A1:IZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.33203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.5546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="16" max="257" width="9.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="258" max="258" width="9.109375" style="6" collapsed="1"/>
-    <col min="259" max="259" width="9.109375" style="6"/>
-    <col min="260" max="16384" width="9.109375" style="6" collapsed="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="92.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="14" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="255" width="9.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="256" max="256" width="9.140625" style="5" collapsed="1"/>
+    <col min="257" max="257" width="9.140625" style="5"/>
+    <col min="258" max="258" width="9.140625" style="5" collapsed="1"/>
+    <col min="259" max="260" width="9.140625" style="5"/>
+    <col min="261" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -771,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV6"/>
   <sheetViews>
@@ -779,118 +852,118 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="254" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="255" max="255" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="254" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="255" max="255" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="256" max="256" width="55" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
@@ -912,179 +985,179 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="123.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="123.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="256" width="9.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/Bank_Vendor_Data.xlsx
+++ b/input/data/Bank_Vendor_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix WorkSpace\Mendix_BatchRun\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141912B-3174-4867-82A4-6A3538CED367}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBA033A-BB29-4D65-A829-988B3757CA8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,14 +219,14 @@
     <t>97.Create_Vendor_with_Questionnaire_banklocalonly_Global2.xml</t>
   </si>
   <si>
-    <t>4.Change_vendor_global_&amp;_local_&amp;_Bank.xml</t>
+    <t>4.Change_vendor_global__local__Bank.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -671,10 +671,10 @@
   <dimension ref="A1:IZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="92.7109375" style="3" customWidth="1" collapsed="1"/>
@@ -696,7 +696,7 @@
     <col min="261" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -792,7 +792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -812,7 +812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -852,7 +852,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55" style="1" customWidth="1" collapsed="1"/>
@@ -864,7 +864,7 @@
     <col min="256" max="256" width="55" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -898,7 +898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -915,7 +915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -932,7 +932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -949,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -985,14 +985,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="123.140625" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="256" width="9.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
